--- a/models/features_shap_feat_importance.xlsx
+++ b/models/features_shap_feat_importance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -662,139 +662,149 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>std_distancia_hub</t>
+          <t>qtd_pedidos_loja_ultima_1h</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>std_distancia_loja</t>
+          <t>std_distancia_hub</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>std_entregas_entregador_hora</t>
+          <t>std_distancia_loja</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>tempo_entrega_lag1</t>
+          <t>std_entregas_loja_hora</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>tempo_entrega_loja_mm7</t>
+          <t>tempo_entrega_lag1</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>tempo_producao_pedido_lag1</t>
+          <t>tempo_entrega_loja_mm7</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>tempo_producao_pedido_loja_mm7</t>
+          <t>tempo_producao_pedido_lag1</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>valor_pedido</t>
+          <t>tempo_producao_pedido_loja_mm7</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>valor_pedido_loja_mm7</t>
+          <t>valor_pedido</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>variabilidade_entrega_loja_mm7</t>
+          <t>valor_pedido_loja_mm7</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>variabilidade_producao_pedido_loja_mm7</t>
+          <t>variabilidade_entrega_loja_mm7</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>velocidade_de_entrega_do_entregador_mm7</t>
+          <t>variabilidade_producao_pedido_loja_mm7</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>zscore_distancia_hub</t>
+          <t>velocidade_de_entrega_do_entregador_mm7</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B37" t="inlineStr">
+        <is>
+          <t>zscore_distancia_hub</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>zscore_distancia_loja</t>
         </is>
